--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/84/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/84/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.14804</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2148.04</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.71737</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2717.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12401</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.2161</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3216.1</v>
       </c>
     </row>
     <row r="7">
@@ -510,1055 +510,1055 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.56118</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3561.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186017</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>3.88722</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>3887.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216993</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>4.17671</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>4176.71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247941</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>4.43153</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>4431.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278866</v>
       </c>
       <c r="B11" t="n">
-        <v>9.761120000000002</v>
+        <v>4.62749</v>
       </c>
       <c r="C11" t="n">
-        <v>9761.120000000001</v>
+        <v>4627.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309791</v>
       </c>
       <c r="B12" t="n">
-        <v>9.86453</v>
+        <v>4.76145</v>
       </c>
       <c r="C12" t="n">
-        <v>9864.530000000001</v>
+        <v>4761.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340716</v>
       </c>
       <c r="B13" t="n">
-        <v>9.961740000000001</v>
+        <v>4.87689</v>
       </c>
       <c r="C13" t="n">
-        <v>9961.74</v>
+        <v>4876.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371641</v>
       </c>
       <c r="B14" t="n">
-        <v>9.98494</v>
+        <v>4.918970000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9984.940000000001</v>
+        <v>4918.97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402566</v>
       </c>
       <c r="B15" t="n">
-        <v>9.976750000000001</v>
+        <v>4.93247</v>
       </c>
       <c r="C15" t="n">
-        <v>9976.75</v>
+        <v>4932.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433491</v>
       </c>
       <c r="B16" t="n">
-        <v>9.949850000000001</v>
+        <v>4.92318</v>
       </c>
       <c r="C16" t="n">
-        <v>9949.85</v>
+        <v>4923.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464416</v>
       </c>
       <c r="B17" t="n">
-        <v>9.91497</v>
+        <v>4.90888</v>
       </c>
       <c r="C17" t="n">
-        <v>9914.969999999999</v>
+        <v>4908.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495341</v>
       </c>
       <c r="B18" t="n">
-        <v>9.875680000000001</v>
+        <v>4.89137</v>
       </c>
       <c r="C18" t="n">
-        <v>9875.68</v>
+        <v>4891.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526266</v>
       </c>
       <c r="B19" t="n">
-        <v>9.834620000000001</v>
+        <v>4.873390000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9834.620000000001</v>
+        <v>4873.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557186</v>
       </c>
       <c r="B20" t="n">
-        <v>9.794229999999999</v>
+        <v>4.85404</v>
       </c>
       <c r="C20" t="n">
-        <v>9794.23</v>
+        <v>4854.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.5881110000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>9.75442</v>
+        <v>4.83395</v>
       </c>
       <c r="C21" t="n">
-        <v>9754.42</v>
+        <v>4833.95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619154</v>
       </c>
       <c r="B22" t="n">
-        <v>9.71321</v>
+        <v>4.81292</v>
       </c>
       <c r="C22" t="n">
-        <v>9713.209999999999</v>
+        <v>4812.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650331</v>
       </c>
       <c r="B23" t="n">
-        <v>9.67258</v>
+        <v>4.79075</v>
       </c>
       <c r="C23" t="n">
-        <v>9672.58</v>
+        <v>4790.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681503</v>
       </c>
       <c r="B24" t="n">
-        <v>9.630649999999999</v>
+        <v>4.76766</v>
       </c>
       <c r="C24" t="n">
-        <v>9630.65</v>
+        <v>4767.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712676</v>
       </c>
       <c r="B25" t="n">
-        <v>9.585760000000001</v>
+        <v>4.7435</v>
       </c>
       <c r="C25" t="n">
-        <v>9585.76</v>
+        <v>4743.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743853</v>
       </c>
       <c r="B26" t="n">
-        <v>9.537240000000001</v>
+        <v>4.71839</v>
       </c>
       <c r="C26" t="n">
-        <v>9537.24</v>
+        <v>4718.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775025</v>
       </c>
       <c r="B27" t="n">
-        <v>9.48363</v>
+        <v>4.69217</v>
       </c>
       <c r="C27" t="n">
-        <v>9483.629999999999</v>
+        <v>4692.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806202</v>
       </c>
       <c r="B28" t="n">
-        <v>9.42661</v>
+        <v>4.664020000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>9426.610000000001</v>
+        <v>4664.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837375</v>
       </c>
       <c r="B29" t="n">
-        <v>9.366940000000001</v>
+        <v>4.63348</v>
       </c>
       <c r="C29" t="n">
-        <v>9366.940000000001</v>
+        <v>4633.48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868547</v>
       </c>
       <c r="B30" t="n">
-        <v>9.303049999999999</v>
+        <v>4.60136</v>
       </c>
       <c r="C30" t="n">
-        <v>9303.049999999999</v>
+        <v>4601.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899724</v>
       </c>
       <c r="B31" t="n">
-        <v>9.234879999999999</v>
+        <v>4.56678</v>
       </c>
       <c r="C31" t="n">
-        <v>9234.879999999999</v>
+        <v>4566.78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930897</v>
       </c>
       <c r="B32" t="n">
-        <v>9.163959999999999</v>
+        <v>4.53009</v>
       </c>
       <c r="C32" t="n">
-        <v>9163.959999999999</v>
+        <v>4530.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962069</v>
       </c>
       <c r="B33" t="n">
-        <v>9.089030000000001</v>
+        <v>4.49106</v>
       </c>
       <c r="C33" t="n">
-        <v>9089.030000000001</v>
+        <v>4491.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993247</v>
       </c>
       <c r="B34" t="n">
-        <v>9.01047</v>
+        <v>4.44997</v>
       </c>
       <c r="C34" t="n">
-        <v>9010.469999999999</v>
+        <v>4449.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02456</v>
       </c>
       <c r="B35" t="n">
-        <v>8.927100000000001</v>
+        <v>4.406890000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>8927.1</v>
+        <v>4406.89</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>8.840440000000001</v>
+        <v>4.36155</v>
       </c>
       <c r="C36" t="n">
-        <v>8840.440000000001</v>
+        <v>4361.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08713</v>
+        <v>1.08732</v>
       </c>
       <c r="B37" t="n">
-        <v>8.2629</v>
+        <v>4.31472</v>
       </c>
       <c r="C37" t="n">
-        <v>8262.9</v>
+        <v>4314.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11792</v>
+        <v>1.1187</v>
       </c>
       <c r="B38" t="n">
-        <v>8.744059999999999</v>
+        <v>4.265689999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>8744.059999999999</v>
+        <v>4265.69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14908</v>
+        <v>1.14983</v>
       </c>
       <c r="B39" t="n">
-        <v>8.83792</v>
+        <v>3.87102</v>
       </c>
       <c r="C39" t="n">
-        <v>8837.92</v>
+        <v>3871.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18006</v>
+        <v>1.18082</v>
       </c>
       <c r="B40" t="n">
-        <v>8.51756</v>
+        <v>4.18807</v>
       </c>
       <c r="C40" t="n">
-        <v>8517.559999999999</v>
+        <v>4188.07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.211</v>
+        <v>1.21179</v>
       </c>
       <c r="B41" t="n">
-        <v>8.45002</v>
+        <v>4.071050000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>8450.02</v>
+        <v>4071.05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24179</v>
+        <v>1.24273</v>
       </c>
       <c r="B42" t="n">
-        <v>8.42347</v>
+        <v>3.98858</v>
       </c>
       <c r="C42" t="n">
-        <v>8423.469999999999</v>
+        <v>3988.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27307</v>
+        <v>1.27316</v>
       </c>
       <c r="B43" t="n">
-        <v>8.31235</v>
+        <v>4.02487</v>
       </c>
       <c r="C43" t="n">
-        <v>8312.35</v>
+        <v>4024.87</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30423</v>
+        <v>1.30357</v>
       </c>
       <c r="B44" t="n">
-        <v>8.21266</v>
+        <v>3.89402</v>
       </c>
       <c r="C44" t="n">
-        <v>8212.66</v>
+        <v>3894.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3354</v>
+        <v>1.33397</v>
       </c>
       <c r="B45" t="n">
-        <v>8.060790000000001</v>
+        <v>3.80843</v>
       </c>
       <c r="C45" t="n">
-        <v>8060.79</v>
+        <v>3808.43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36656</v>
+        <v>1.36436</v>
       </c>
       <c r="B46" t="n">
-        <v>7.91821</v>
+        <v>3.76878</v>
       </c>
       <c r="C46" t="n">
-        <v>7918.21</v>
+        <v>3768.78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39773</v>
+        <v>1.39476</v>
       </c>
       <c r="B47" t="n">
-        <v>7.788970000000001</v>
+        <v>3.70988</v>
       </c>
       <c r="C47" t="n">
-        <v>7788.97</v>
+        <v>3709.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42889</v>
+        <v>1.42516</v>
       </c>
       <c r="B48" t="n">
-        <v>7.6252</v>
+        <v>3.67455</v>
       </c>
       <c r="C48" t="n">
-        <v>7625.2</v>
+        <v>3674.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46006</v>
+        <v>1.45556</v>
       </c>
       <c r="B49" t="n">
-        <v>7.48874</v>
+        <v>3.66656</v>
       </c>
       <c r="C49" t="n">
-        <v>7488.74</v>
+        <v>3666.56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49122</v>
+        <v>1.48596</v>
       </c>
       <c r="B50" t="n">
-        <v>7.33523</v>
+        <v>3.56748</v>
       </c>
       <c r="C50" t="n">
-        <v>7335.23</v>
+        <v>3567.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52239</v>
+        <v>1.51637</v>
       </c>
       <c r="B51" t="n">
-        <v>7.22829</v>
+        <v>3.55353</v>
       </c>
       <c r="C51" t="n">
-        <v>7228.29</v>
+        <v>3553.53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55355</v>
+        <v>1.54677</v>
       </c>
       <c r="B52" t="n">
-        <v>7.06451</v>
+        <v>3.46952</v>
       </c>
       <c r="C52" t="n">
-        <v>7064.51</v>
+        <v>3469.52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58458</v>
+        <v>1.57716</v>
       </c>
       <c r="B53" t="n">
-        <v>6.9547</v>
+        <v>3.41683</v>
       </c>
       <c r="C53" t="n">
-        <v>6954.7</v>
+        <v>3416.83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61559</v>
+        <v>1.60813</v>
       </c>
       <c r="B54" t="n">
-        <v>6.83053</v>
+        <v>3.34428</v>
       </c>
       <c r="C54" t="n">
-        <v>6830.53</v>
+        <v>3344.28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64659</v>
+        <v>1.6391</v>
       </c>
       <c r="B55" t="n">
-        <v>6.71557</v>
+        <v>3.27893</v>
       </c>
       <c r="C55" t="n">
-        <v>6715.57</v>
+        <v>3278.93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67765</v>
+        <v>1.67013</v>
       </c>
       <c r="B56" t="n">
-        <v>6.58558</v>
+        <v>3.21009</v>
       </c>
       <c r="C56" t="n">
-        <v>6585.58</v>
+        <v>3210.09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70856</v>
+        <v>1.70115</v>
       </c>
       <c r="B57" t="n">
-        <v>6.44762</v>
+        <v>3.15217</v>
       </c>
       <c r="C57" t="n">
-        <v>6447.62</v>
+        <v>3152.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73962</v>
+        <v>1.73213</v>
       </c>
       <c r="B58" t="n">
-        <v>6.33503</v>
+        <v>3.10265</v>
       </c>
       <c r="C58" t="n">
-        <v>6335.03</v>
+        <v>3102.65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77063</v>
+        <v>1.76327</v>
       </c>
       <c r="B59" t="n">
-        <v>6.21628</v>
+        <v>3.04323</v>
       </c>
       <c r="C59" t="n">
-        <v>6216.28</v>
+        <v>3043.23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80154</v>
+        <v>1.79399</v>
       </c>
       <c r="B60" t="n">
-        <v>6.12025</v>
+        <v>2.97932</v>
       </c>
       <c r="C60" t="n">
-        <v>6120.25</v>
+        <v>2979.32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83273</v>
+        <v>1.82531</v>
       </c>
       <c r="B61" t="n">
-        <v>5.98983</v>
+        <v>2.92883</v>
       </c>
       <c r="C61" t="n">
-        <v>5989.83</v>
+        <v>2928.83</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86328</v>
+        <v>1.85602</v>
       </c>
       <c r="B62" t="n">
-        <v>5.8973</v>
+        <v>2.88799</v>
       </c>
       <c r="C62" t="n">
-        <v>5897.3</v>
+        <v>2887.99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89475</v>
+        <v>1.88724</v>
       </c>
       <c r="B63" t="n">
-        <v>5.77516</v>
+        <v>2.8364</v>
       </c>
       <c r="C63" t="n">
-        <v>5775.16</v>
+        <v>2836.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92551</v>
+        <v>1.91825</v>
       </c>
       <c r="B64" t="n">
-        <v>5.699140000000001</v>
+        <v>2.79692</v>
       </c>
       <c r="C64" t="n">
-        <v>5699.14</v>
+        <v>2796.92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95656</v>
+        <v>1.94877</v>
       </c>
       <c r="B65" t="n">
-        <v>5.58516</v>
+        <v>2.74929</v>
       </c>
       <c r="C65" t="n">
-        <v>5585.16</v>
+        <v>2749.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98775</v>
+        <v>1.98026</v>
       </c>
       <c r="B66" t="n">
-        <v>5.50675</v>
+        <v>2.71693</v>
       </c>
       <c r="C66" t="n">
-        <v>5506.75</v>
+        <v>2716.93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01828</v>
+        <v>2.01117</v>
       </c>
       <c r="B67" t="n">
-        <v>5.409310000000001</v>
+        <v>2.67557</v>
       </c>
       <c r="C67" t="n">
-        <v>5409.31</v>
+        <v>2675.57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04988</v>
+        <v>2.04135</v>
       </c>
       <c r="B68" t="n">
-        <v>5.33473</v>
+        <v>2.65427</v>
       </c>
       <c r="C68" t="n">
-        <v>5334.73</v>
+        <v>2654.27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08081</v>
+        <v>2.07296</v>
       </c>
       <c r="B69" t="n">
-        <v>5.24877</v>
+        <v>2.60364</v>
       </c>
       <c r="C69" t="n">
-        <v>5248.77</v>
+        <v>2603.64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11124</v>
+        <v>2.10417</v>
       </c>
       <c r="B70" t="n">
-        <v>5.17176</v>
+        <v>2.5797</v>
       </c>
       <c r="C70" t="n">
-        <v>5171.76</v>
+        <v>2579.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14304</v>
+        <v>2.13435</v>
       </c>
       <c r="B71" t="n">
-        <v>5.0999</v>
+        <v>2.55841</v>
       </c>
       <c r="C71" t="n">
-        <v>5099.9</v>
+        <v>2558.41</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17376</v>
+        <v>2.16592</v>
       </c>
       <c r="B72" t="n">
-        <v>5.03385</v>
+        <v>2.52623</v>
       </c>
       <c r="C72" t="n">
-        <v>5033.85</v>
+        <v>2526.23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.205</v>
+        <v>2.19733</v>
       </c>
       <c r="B73" t="n">
-        <v>4.98958</v>
+        <v>2.48973</v>
       </c>
       <c r="C73" t="n">
-        <v>4989.58</v>
+        <v>2489.73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23555</v>
+        <v>2.22773</v>
       </c>
       <c r="B74" t="n">
-        <v>4.97633</v>
+        <v>2.4736</v>
       </c>
       <c r="C74" t="n">
-        <v>4976.33</v>
+        <v>2473.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26543</v>
+        <v>2.25816</v>
       </c>
       <c r="B75" t="n">
-        <v>4.9464</v>
+        <v>2.45132</v>
       </c>
       <c r="C75" t="n">
-        <v>4946.4</v>
+        <v>2451.32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29691</v>
+        <v>2.2904</v>
       </c>
       <c r="B76" t="n">
-        <v>4.93663</v>
+        <v>2.4213</v>
       </c>
       <c r="C76" t="n">
-        <v>4936.63</v>
+        <v>2421.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3294</v>
+        <v>2.32112</v>
       </c>
       <c r="B77" t="n">
-        <v>4.93447</v>
+        <v>2.39229</v>
       </c>
       <c r="C77" t="n">
-        <v>4934.47</v>
+        <v>2392.29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36105</v>
+        <v>2.35184</v>
       </c>
       <c r="B78" t="n">
-        <v>4.90997</v>
+        <v>2.37321</v>
       </c>
       <c r="C78" t="n">
-        <v>4909.97</v>
+        <v>2373.21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39134</v>
+        <v>2.38257</v>
       </c>
       <c r="B79" t="n">
-        <v>4.88895</v>
+        <v>2.35106</v>
       </c>
       <c r="C79" t="n">
-        <v>4888.95</v>
+        <v>2351.06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4216</v>
+        <v>2.41392</v>
       </c>
       <c r="B80" t="n">
-        <v>4.86273</v>
+        <v>2.32886</v>
       </c>
       <c r="C80" t="n">
-        <v>4862.73</v>
+        <v>2328.86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45448</v>
+        <v>2.44501</v>
       </c>
       <c r="B81" t="n">
-        <v>4.85816</v>
+        <v>2.30356</v>
       </c>
       <c r="C81" t="n">
-        <v>4858.16</v>
+        <v>2303.56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48776</v>
+        <v>2.4759</v>
       </c>
       <c r="B82" t="n">
-        <v>4.79948</v>
+        <v>2.28715</v>
       </c>
       <c r="C82" t="n">
-        <v>4799.48</v>
+        <v>2287.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52104</v>
+        <v>2.50578</v>
       </c>
       <c r="B83" t="n">
-        <v>4.76618</v>
+        <v>2.27712</v>
       </c>
       <c r="C83" t="n">
-        <v>4766.18</v>
+        <v>2277.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55259</v>
+        <v>2.53526</v>
       </c>
       <c r="B84" t="n">
-        <v>4.73919</v>
+        <v>2.25308</v>
       </c>
       <c r="C84" t="n">
-        <v>4739.19</v>
+        <v>2253.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58334</v>
+        <v>2.56434</v>
       </c>
       <c r="B85" t="n">
-        <v>4.716060000000001</v>
+        <v>2.25982</v>
       </c>
       <c r="C85" t="n">
-        <v>4716.06</v>
+        <v>2259.82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61406</v>
+        <v>2.59679</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68991</v>
+        <v>2.24387</v>
       </c>
       <c r="C86" t="n">
-        <v>4689.91</v>
+        <v>2243.87</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64478</v>
+        <v>2.63001</v>
       </c>
       <c r="B87" t="n">
-        <v>4.66383</v>
+        <v>2.25988</v>
       </c>
       <c r="C87" t="n">
-        <v>4663.83</v>
+        <v>2259.88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6755</v>
+        <v>2.66329</v>
       </c>
       <c r="B88" t="n">
-        <v>4.630770000000001</v>
+        <v>2.24857</v>
       </c>
       <c r="C88" t="n">
-        <v>4630.77</v>
+        <v>2248.57</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70622</v>
+        <v>2.69657</v>
       </c>
       <c r="B89" t="n">
-        <v>4.61258</v>
+        <v>2.22646</v>
       </c>
       <c r="C89" t="n">
-        <v>4612.58</v>
+        <v>2226.46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73694</v>
+        <v>2.72937</v>
       </c>
       <c r="B90" t="n">
-        <v>4.59618</v>
+        <v>2.21755</v>
       </c>
       <c r="C90" t="n">
-        <v>4596.18</v>
+        <v>2217.55</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76597</v>
+        <v>2.76056</v>
       </c>
       <c r="B91" t="n">
-        <v>4.56936</v>
+        <v>2.2161</v>
       </c>
       <c r="C91" t="n">
-        <v>4569.36</v>
+        <v>2216.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79418</v>
+        <v>2.79129</v>
       </c>
       <c r="B92" t="n">
-        <v>4.52903</v>
+        <v>2.20781</v>
       </c>
       <c r="C92" t="n">
-        <v>4529.03</v>
+        <v>2207.81</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82235</v>
+        <v>2.82201</v>
       </c>
       <c r="B93" t="n">
-        <v>4.533939999999999</v>
+        <v>2.19888</v>
       </c>
       <c r="C93" t="n">
-        <v>4533.94</v>
+        <v>2198.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85052</v>
+        <v>2.85273</v>
       </c>
       <c r="B94" t="n">
-        <v>4.48651</v>
+        <v>2.18383</v>
       </c>
       <c r="C94" t="n">
-        <v>4486.51</v>
+        <v>2183.83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87868</v>
+        <v>2.88345</v>
       </c>
       <c r="B95" t="n">
-        <v>4.46264</v>
+        <v>2.16652</v>
       </c>
       <c r="C95" t="n">
-        <v>4462.64</v>
+        <v>2166.52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91015</v>
+        <v>2.91417</v>
       </c>
       <c r="B96" t="n">
-        <v>4.43659</v>
+        <v>2.16297</v>
       </c>
       <c r="C96" t="n">
-        <v>4436.59</v>
+        <v>2162.97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94516</v>
+        <v>2.94489</v>
       </c>
       <c r="B97" t="n">
-        <v>4.40404</v>
+        <v>2.16694</v>
       </c>
       <c r="C97" t="n">
-        <v>4404.04</v>
+        <v>2166.94</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98033</v>
+        <v>2.97429</v>
       </c>
       <c r="B98" t="n">
-        <v>4.38164</v>
+        <v>2.15559</v>
       </c>
       <c r="C98" t="n">
-        <v>4381.64</v>
+        <v>2155.59</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01413</v>
+        <v>3.0028</v>
       </c>
       <c r="B99" t="n">
-        <v>4.33942</v>
+        <v>2.13038</v>
       </c>
       <c r="C99" t="n">
-        <v>4339.42</v>
+        <v>2130.38</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.0463</v>
+        <v>3.03102</v>
       </c>
       <c r="B100" t="n">
-        <v>4.32558</v>
+        <v>2.13257</v>
       </c>
       <c r="C100" t="n">
-        <v>4325.58</v>
+        <v>2132.57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07833</v>
+        <v>3.05919</v>
       </c>
       <c r="B101" t="n">
-        <v>4.29841</v>
+        <v>2.11845</v>
       </c>
       <c r="C101" t="n">
-        <v>4298.41</v>
+        <v>2118.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11033</v>
+        <v>3.08735</v>
       </c>
       <c r="B102" t="n">
-        <v>4.26204</v>
+        <v>2.10382</v>
       </c>
       <c r="C102" t="n">
-        <v>4262.04</v>
+        <v>2103.82</v>
       </c>
     </row>
   </sheetData>
